--- a/medicine/Mort/Künstler-Nekropole/Künstler-Nekropole.xlsx
+++ b/medicine/Mort/Künstler-Nekropole/Künstler-Nekropole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>K%C3%BCnstler-Nekropole</t>
+          <t>Künstler-Nekropole</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Künstler-Nekropole (nécropole de l'artiste) est un cimetière situé à Cassel, en Allemagne, dans le quartier de Harleshausen.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>K%C3%BCnstler-Nekropole</t>
+          <t>Künstler-Nekropole</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Localisation géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Künstler-Nekropole est située au Hohen Habichtswald dans la zone boisée de Harleshausen, au nord-ouest de Kassel. Elle est située dans le parc naturel de Habichtswald sur le lac Bleu, une ancienne carrière de basalte. À environ 2 km au sud se trouve le Bergpark Wilhelmshöhe.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>K%C3%BCnstler-Nekropole</t>
+          <t>Künstler-Nekropole</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Harry Kramer, artiste participant à la documenta à Cassel, se préoccupe d'un panthéon sous la pluie (Pantheon im Regen) depuis le début des années 1980. Les artistes documenta sélectionnés devraient avoir la possibilité de concevoir leur propre monument funéraire pour la nécropole du lac Bleu et seront inhumés dans des urnes après crémation.
 Kramer reprend l'idée historique de créer des monuments dans le parc et des tombes dans la forêt. Dans le jardin paysager naturel, Kramer donne aux artistes la possibilité de créer leur propre tombe dans un cimetière de leur vivant. Au total, quarante tombes sont prévues. La zone de protection du paysage doit être perturbée le moins possible par la tombe et doit être laissée à elle-même.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>K%C3%BCnstler-Nekropole</t>
+          <t>Künstler-Nekropole</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Monuments funéraires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Rune Mields, La vita corre come rivo fluente (1992), marbre et feuille d'or
 Timm Ulrichs, souterrain (1992), bronze coulé et verre
@@ -610,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>K%C3%BCnstler-Nekropole</t>
+          <t>Künstler-Nekropole</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,7 +646,9 @@
           <t>Artistes inhumés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'initiateur du parc, Harry Kramer, est le premier artiste à être enterré dans la nécropole en 1997 ; il a renoncé à une tombe et est enterré anonymement. Marga Blase (1930–2006), l'épouse de Karl Oskar Blase (1925–2016), qui souffrait de la maladie d'Alzheimer, est enterrée près de la tombe de son mari, mort en décembre 2016, et honorée de sa propre pierre commémorative. La tombe de Fritz Schwegler (1935–2014) contient de la terre provenant de sa tombe actuelle à Börtlingen. L'urne de Werner Ruhnau (1922-2015) est enterrée dans la nécropole en 2015. Les cendres de Heinrich Brummack ont été inhumées dans la nécropole le 28 avril 2018 dans une urne en forme de lapin d'or.
 </t>
